--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>426566.615324982</v>
+        <v>424184.6199798018</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -668,13 +668,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>11.89546072423698</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>4.537709161662216</v>
       </c>
       <c r="H2" t="n">
-        <v>259.1727668674366</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -713,13 +713,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>41.06973663012879</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>28.78048096121135</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.74347609701277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>323.663725047623</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>240.7199646803068</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,7 +987,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657078</v>
       </c>
       <c r="H6" t="n">
         <v>89.59687541851115</v>
@@ -1026,7 +1026,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U6" t="n">
         <v>225.7871683969286</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>161.2930612168292</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>251.1382003403121</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>124.2781875329281</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>274.0180460704206</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>161.5883269196784</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>80.00310274663619</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.930370072263</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>102.8847378587279</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>101.690432039017</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336587</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1610,10 +1610,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620684</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>249.5090726601665</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>170.8079800483196</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>110.0097398956663</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>142.3244661404307</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>26.27614159852457</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189236</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520929</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986295</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5115415340503</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>136.1078891637031</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>112.7606860319987</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>3.006892987834567</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.9742741983368</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>54.3264904208971</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>214.0647808588585</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>156.2292142534452</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1506.363819949361</v>
+        <v>1233.054528695064</v>
       </c>
       <c r="C2" t="n">
-        <v>1137.401303008949</v>
+        <v>864.0920117546525</v>
       </c>
       <c r="D2" t="n">
-        <v>779.1356044021984</v>
+        <v>505.826313147902</v>
       </c>
       <c r="E2" t="n">
-        <v>393.3473518039542</v>
+        <v>120.0380605496578</v>
       </c>
       <c r="F2" t="n">
-        <v>381.3317349107855</v>
+        <v>113.0925598004543</v>
       </c>
       <c r="G2" t="n">
-        <v>370.299688796186</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4328,7 +4328,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4361,19 +4361,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2656.568750250374</v>
+        <v>2383.259458996078</v>
       </c>
       <c r="X2" t="n">
-        <v>2283.102991989294</v>
+        <v>2009.793700734998</v>
       </c>
       <c r="Y2" t="n">
-        <v>1892.963660013482</v>
+        <v>1619.654368759186</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064583</v>
@@ -4407,10 +4407,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
         <v>765.1517452158134</v>
@@ -4428,7 +4428,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125857</v>
@@ -4437,16 +4437,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>361.3151575124869</v>
+        <v>95.58330932229589</v>
       </c>
       <c r="C4" t="n">
-        <v>361.3151575124869</v>
+        <v>95.58330932229589</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>95.58330932229589</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>95.58330932229589</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>95.58330932229589</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>95.58330932229589</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218342</v>
@@ -4510,28 +4510,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>95.58330932229589</v>
       </c>
       <c r="W4" t="n">
-        <v>631.4698357812242</v>
+        <v>95.58330932229589</v>
       </c>
       <c r="X4" t="n">
-        <v>403.4802848832069</v>
+        <v>95.58330932229589</v>
       </c>
       <c r="Y4" t="n">
-        <v>361.3151575124869</v>
+        <v>95.58330932229589</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1506.363819949361</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1506.363819949361</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1148.098121342611</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1148.098121342611</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,13 +4562,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4577,7 +4577,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4586,7 +4586,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2961.784676410102</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X5" t="n">
-        <v>2588.318918149022</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.167438673965</v>
+        <v>1892.963660013483</v>
       </c>
     </row>
     <row r="6">
@@ -4620,31 +4620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>326.7600776712413</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>326.7600776712413</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>326.7600776712413</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>326.7600776712413</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>326.7600776712413</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450112</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>729.2011216450112</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U7" t="n">
-        <v>729.2011216450112</v>
+        <v>320.1870662708825</v>
       </c>
       <c r="V7" t="n">
-        <v>729.2011216450112</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="W7" t="n">
-        <v>729.2011216450112</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X7" t="n">
-        <v>729.2011216450112</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y7" t="n">
-        <v>508.4085425014811</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1572.164517693149</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>953.6440892486878</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,31 +4799,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2684.998771288465</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2332.230116018351</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.764357757271</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1958.764357757271</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>648.3899067494191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C10" t="n">
-        <v>479.4537238215122</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>479.4537238215122</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="S10" t="n">
-        <v>729.2011216450112</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="T10" t="n">
-        <v>729.2011216450112</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="U10" t="n">
-        <v>729.2011216450112</v>
+        <v>476.1501321604405</v>
       </c>
       <c r="V10" t="n">
-        <v>729.2011216450112</v>
+        <v>476.1501321604405</v>
       </c>
       <c r="W10" t="n">
-        <v>648.3899067494191</v>
+        <v>476.1501321604405</v>
       </c>
       <c r="X10" t="n">
-        <v>648.3899067494191</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y10" t="n">
-        <v>648.3899067494191</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5036,22 +5036,22 @@
         <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068011</v>
@@ -5084,7 +5084,7 @@
         <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349515</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061504</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.043492616111</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.043492616111</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>197.7406406830507</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="C13" t="n">
         <v>93.81666304797191</v>
@@ -5224,25 +5224,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S13" t="n">
-        <v>1440.555541309953</v>
+        <v>1257.700706964858</v>
       </c>
       <c r="T13" t="n">
-        <v>1440.555541309953</v>
+        <v>1154.983098844639</v>
       </c>
       <c r="U13" t="n">
-        <v>1151.480314654151</v>
+        <v>865.9078721888367</v>
       </c>
       <c r="V13" t="n">
-        <v>896.7958264482644</v>
+        <v>611.2233839829498</v>
       </c>
       <c r="W13" t="n">
-        <v>607.3786564113077</v>
+        <v>321.8062139459893</v>
       </c>
       <c r="X13" t="n">
-        <v>379.3891055132904</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="Y13" t="n">
-        <v>379.3891055132904</v>
+        <v>93.81666304797191</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,64 +5264,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191926</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349515</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349515</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>429.9489452609988</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="C16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>140.7528025687997</v>
@@ -5458,28 +5458,28 @@
         <v>1440.555541309953</v>
       </c>
       <c r="R16" t="n">
-        <v>1373.509837562356</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S16" t="n">
-        <v>1190.65500321726</v>
+        <v>1257.700706964858</v>
       </c>
       <c r="T16" t="n">
-        <v>971.0535382402015</v>
+        <v>1038.099241987799</v>
       </c>
       <c r="U16" t="n">
-        <v>681.9783115843993</v>
+        <v>749.0240153319969</v>
       </c>
       <c r="V16" t="n">
-        <v>429.9489452609988</v>
+        <v>494.3395271261101</v>
       </c>
       <c r="W16" t="n">
-        <v>429.9489452609988</v>
+        <v>321.8062139459893</v>
       </c>
       <c r="X16" t="n">
-        <v>429.9489452609988</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="Y16" t="n">
-        <v>429.9489452609988</v>
+        <v>93.81666304797191</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5534,31 +5534,31 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637308</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438167</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.46766635706</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>412.8694853882146</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="C19" t="n">
-        <v>243.9333024603076</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="D19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
         <v>140.7528025687997</v>
@@ -5701,22 +5701,22 @@
         <v>1440.555541309953</v>
       </c>
       <c r="T19" t="n">
-        <v>1220.954076332895</v>
+        <v>1329.434591920392</v>
       </c>
       <c r="U19" t="n">
-        <v>1220.954076332895</v>
+        <v>1040.359365264589</v>
       </c>
       <c r="V19" t="n">
-        <v>966.2695881270078</v>
+        <v>785.6748770587024</v>
       </c>
       <c r="W19" t="n">
-        <v>966.2695881270078</v>
+        <v>496.2577070217417</v>
       </c>
       <c r="X19" t="n">
-        <v>738.2800372289904</v>
+        <v>496.2577070217417</v>
       </c>
       <c r="Y19" t="n">
-        <v>594.5179502184543</v>
+        <v>275.4651278782116</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,7 +5762,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068011</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>835.5837926935582</v>
+        <v>580.8993044876706</v>
       </c>
       <c r="C22" t="n">
-        <v>666.6476097656513</v>
+        <v>411.9631215597637</v>
       </c>
       <c r="D22" t="n">
-        <v>516.5309703533155</v>
+        <v>261.846482147428</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>113.9333885650349</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>113.9333885650349</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258108</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V22" t="n">
-        <v>1755.431557602304</v>
+        <v>1500.747069396419</v>
       </c>
       <c r="W22" t="n">
-        <v>1466.014387565343</v>
+        <v>1211.329899359458</v>
       </c>
       <c r="X22" t="n">
-        <v>1238.024836667326</v>
+        <v>983.3403484614405</v>
       </c>
       <c r="Y22" t="n">
-        <v>1017.232257523798</v>
+        <v>762.5477693179104</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6072,7 +6072,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
         <v>1186.520756890282</v>
@@ -6081,7 +6081,7 @@
         <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703114</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>526.5658826424028</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>376.4492432300671</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>376.4492432300671</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>376.4492432300671</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,61 +6212,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1863.561397649904</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1608.876909444017</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1319.459739407056</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1319.459739407056</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,25 +6689,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6716,10 +6716,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597624</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597624</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="E34" t="n">
-        <v>264.0500279773693</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,19 +6923,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6953,31 +6953,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>762.547769317909</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>593.6115863900021</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>443.4949469776664</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E40" t="n">
-        <v>295.5818533952732</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>148.6919058973629</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,25 +7491,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452613</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429802</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452613</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718132</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
   </sheetData>
@@ -22559,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.384016491791236</v>
       </c>
       <c r="H2" t="n">
-        <v>35.43499751988382</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>64.36208323989989</v>
+        <v>167.2468210986248</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23464,10 +23464,10 @@
         <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>115.7150182882713</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-1.033496017354049e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>2.62857066366152</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365893</v>
+        <v>115.7150182882714</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462208</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>107.395710431622</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>76.26018721166406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>120.1578210480446</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>145.6085800303765</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>26.01259675821851</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>173.4237883572454</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>142.4141550350967</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393204</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>111.1976478713717</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,13 +25795,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>998623.8045192215</v>
+        <v>998623.8045192218</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388655.0434293076</v>
+        <v>388655.0434293077</v>
       </c>
       <c r="C2" t="n">
         <v>389994.8406855345</v>
@@ -26323,13 +26323,13 @@
         <v>372036.3193306904</v>
       </c>
       <c r="F2" t="n">
-        <v>372036.3193306904</v>
+        <v>372036.3193306903</v>
       </c>
       <c r="G2" t="n">
         <v>372036.3193306904</v>
       </c>
       <c r="H2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.634852753</v>
       </c>
       <c r="I2" t="n">
         <v>383394.634852753</v>
@@ -26338,19 +26338,19 @@
         <v>383394.634852753</v>
       </c>
       <c r="K2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="L2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="M2" t="n">
         <v>383394.6348527528</v>
       </c>
-      <c r="L2" t="n">
-        <v>383394.6348527531</v>
-      </c>
-      <c r="M2" t="n">
-        <v>383394.6348527531</v>
-      </c>
       <c r="N2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="O2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527527</v>
       </c>
       <c r="P2" t="n">
         <v>383394.6348527528</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91986.82376344022</v>
+        <v>91986.82376344028</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="E4" t="n">
-        <v>761.3882086835455</v>
+        <v>761.3882086835454</v>
       </c>
       <c r="F4" t="n">
-        <v>761.3882086835455</v>
+        <v>761.3882086835454</v>
       </c>
       <c r="G4" t="n">
         <v>761.3882086835454</v>
@@ -26436,22 +26436,22 @@
         <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
+        <v>16046.58397189196</v>
+      </c>
+      <c r="J4" t="n">
         <v>16046.58397189197</v>
       </c>
-      <c r="J4" t="n">
-        <v>16046.58397189196</v>
-      </c>
       <c r="K4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189196</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
@@ -26479,7 +26479,7 @@
         <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1140010.466623119</v>
+        <v>-1140017.518187625</v>
       </c>
       <c r="C6" t="n">
+        <v>188464.1560200887</v>
+      </c>
+      <c r="D6" t="n">
         <v>188464.1560200886</v>
       </c>
-      <c r="D6" t="n">
-        <v>188464.1560200887</v>
-      </c>
       <c r="E6" t="n">
-        <v>-55260.06050925596</v>
+        <v>-55354.57904270228</v>
       </c>
       <c r="F6" t="n">
-        <v>270152.4012980998</v>
+        <v>270057.8827646531</v>
       </c>
       <c r="G6" t="n">
-        <v>270152.4012980998</v>
+        <v>270057.8827646534</v>
       </c>
       <c r="H6" t="n">
-        <v>266225.5210569542</v>
+        <v>266190.7831315182</v>
       </c>
       <c r="I6" t="n">
-        <v>266225.5210569539</v>
+        <v>266190.7831315184</v>
       </c>
       <c r="J6" t="n">
-        <v>48694.31865967638</v>
+        <v>48659.58073424074</v>
       </c>
       <c r="K6" t="n">
-        <v>266225.5210569537</v>
+        <v>266190.7831315181</v>
       </c>
       <c r="L6" t="n">
-        <v>266225.521056954</v>
+        <v>266190.7831315182</v>
       </c>
       <c r="M6" t="n">
-        <v>181170.493121442</v>
+        <v>181135.7551960062</v>
       </c>
       <c r="N6" t="n">
-        <v>266225.5210569539</v>
+        <v>266190.7831315181</v>
       </c>
       <c r="O6" t="n">
-        <v>266225.5210569539</v>
+        <v>266190.7831315179</v>
       </c>
       <c r="P6" t="n">
-        <v>266225.5210569538</v>
+        <v>266190.783131518</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>394.9805850174745</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>308.1712320872842</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>115.9745339531094</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>176.841177255082</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>83.21232069408848</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.5179739757468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>4.732747042199009</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0.9994429835159337</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,13 +27859,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>257.6521825393337</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>53.73421239971435</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>124.6235112859345</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>206.5198955899548</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.053384223590637e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-2.211213280550236e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28545,7 +28545,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-2.495430374854276e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>3.110756097157719e-12</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -28998,7 +28998,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29025,7 +29025,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.512347035315</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422587</v>
@@ -31847,16 +31847,16 @@
         <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>416.4300581532615</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>307.4654529393625</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -32072,22 +32072,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>732.4825987614906</v>
       </c>
       <c r="N15" t="n">
-        <v>556.7959610899852</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437245</v>
@@ -32099,7 +32099,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.6544928674244</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,37 +32309,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>233.9389431948324</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>344.9857809048113</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32546,34 +32546,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745949</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,19 +32792,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>407.2177391203972</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33521,16 +33521,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34129,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963282</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>537.6437863443698</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.670908060956</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678997</v>
@@ -35495,16 +35495,16 @@
         <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>274.2960242312432</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>173.4910455250323</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
@@ -35720,22 +35720,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>590.3485648394724</v>
       </c>
       <c r="N15" t="n">
-        <v>425.4542490066519</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992801</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>91.80490927281407</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>205.0040068187898</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>47.41024194023011</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K19" t="n">
         <v>157.5888220649825</v>
@@ -36048,19 +36048,19 @@
         <v>231.8673127775771</v>
       </c>
       <c r="M19" t="n">
-        <v>247.7627660915996</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N19" t="n">
         <v>249.8084161454457</v>
       </c>
       <c r="O19" t="n">
-        <v>210.2202333401631</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P19" t="n">
         <v>160.6252099925839</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.05929892214695</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36294,7 +36294,7 @@
         <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066263</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>265.0837051983789</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37169,7 +37169,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010434</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L42" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>261.348781916454</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
